--- a/campusxchange-seo-audit.xlsx
+++ b/campusxchange-seo-audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Campusxchange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5425BBF0-86B4-4464-8739-8A78D672F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F374BD6-8770-47D5-9598-DA749E7025C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{FE2F97EE-CB2E-4104-BB2F-4B26B8D6FBB2}"/>
   </bookViews>
@@ -3461,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B95C7-E444-4CED-AA12-AC94A2DF0A9F}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3762,8 +3762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E58FB7-4B7F-4C7E-8A88-BF037337E883}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4211,7 +4211,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4506,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6321D479-FCF4-4DA0-BA3C-AFCDE67816EA}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5162,8 +5162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E65940-D102-4AE2-9647-CD114F0444E1}">
   <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
